--- a/docs/Deyatelnost.xlsx
+++ b/docs/Deyatelnost.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="n95b9m2wLuvijaFGOPtMs7MBEa6oOSWDKoaCG4TW2bGcGXiU62JvFbrNpzYiWL6bGXOeQFcHthnb6skpENvKKA==" workbookSaltValue="TR9aJ1APSJcF0LfQaM0Haw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Группа" sheetId="1" r:id="rId1"/>
     <sheet name="Проект" sheetId="2" r:id="rId2"/>
-    <sheet name="Инструкции" sheetId="3" r:id="rId3"/>
+    <sheet name="Артефакты" sheetId="4" r:id="rId3"/>
+    <sheet name="Инструкции" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Дата</t>
   </si>
@@ -249,6 +249,45 @@
   </si>
   <si>
     <t>+50%</t>
+  </si>
+  <si>
+    <t>Наименование артефакта</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диаграмма взаимодействия </t>
+  </si>
+  <si>
+    <t>Диаграмма размещения</t>
+  </si>
+  <si>
+    <t>Файл</t>
+  </si>
+  <si>
+    <t>Модель предметной области</t>
+  </si>
+  <si>
+    <t>Варианты использования</t>
+  </si>
+  <si>
+    <t>Зефиров Артём</t>
+  </si>
+  <si>
+    <t>Корректировка</t>
+  </si>
+  <si>
+    <t>tr1_MPO.mdzip</t>
+  </si>
+  <si>
+    <t>tr1.mdzip</t>
+  </si>
+  <si>
+    <t>diagram2_Transas.mdzip</t>
   </si>
 </sst>
 </file>
@@ -372,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -391,9 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -424,14 +460,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1671,18 +1720,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1692,350 +1741,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>42798</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>42805</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19">
         <v>42805</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19">
         <v>42805</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
         <v>42805</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>42805</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>42805</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>42812</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>42819</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="20">
+      <c r="C11" s="12"/>
+      <c r="D11" s="19">
         <v>42826</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="20">
+      <c r="C12" s="12"/>
+      <c r="D12" s="19">
         <v>42833</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>42847</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="20">
+      <c r="C14" s="12"/>
+      <c r="D14" s="19">
         <v>42812</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>42819</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>42826</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>42847</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>42812</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>42819</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2045,6 +2094,190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="28">
+        <v>42805</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="28">
+        <v>42805</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="28">
+        <v>42805</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="28">
+        <v>42805</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="28">
+        <v>42805</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="28">
+        <v>42805</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="28">
+        <v>42819</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="28">
+        <v>42819</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2060,10 +2293,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="25"/>
       <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
@@ -2080,7 +2313,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2091,7 +2324,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>0.75</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2102,7 +2335,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>0.5</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2113,7 +2346,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>0.25</v>
       </c>
       <c r="B6" s="7" t="s">

--- a/docs/Deyatelnost.xlsx
+++ b/docs/Deyatelnost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Группа" sheetId="1" r:id="rId1"/>
@@ -463,15 +463,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,6 +472,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +840,10 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4"/>
@@ -857,14 +857,17 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="10">
         <v>42819</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F66" si="0">1/5</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -872,7 +875,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -880,7 +886,10 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -888,7 +897,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -896,7 +908,10 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -904,7 +919,10 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -912,7 +930,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -920,7 +941,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -928,7 +952,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -936,7 +963,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -944,7 +974,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -952,7 +985,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -960,7 +996,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -968,7 +1007,10 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -976,7 +1018,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -984,7 +1029,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -992,7 +1040,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -1000,7 +1051,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1008,13 +1062,16 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
@@ -1023,19 +1080,22 @@
         <v>42805</v>
       </c>
       <c r="F22" s="11">
-        <f>1/5</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="10">
         <v>42819</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1043,7 +1103,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -1051,7 +1114,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1059,7 +1125,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -1067,7 +1136,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1075,7 +1147,10 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1083,7 +1158,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1091,7 +1169,10 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1099,7 +1180,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1107,7 +1191,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1115,7 +1202,10 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1123,7 +1213,10 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1131,7 +1224,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -1139,7 +1235,10 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -1147,7 +1246,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1155,7 +1257,10 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1163,7 +1268,10 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -1171,7 +1279,10 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1179,13 +1290,16 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="4"/>
@@ -1194,19 +1308,22 @@
         <v>42805</v>
       </c>
       <c r="F42" s="11">
-        <f>1/5</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="10">
         <v>42819</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -1214,7 +1331,10 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -1222,7 +1342,10 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1230,7 +1353,10 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -1238,7 +1364,10 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -1246,7 +1375,10 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -1254,7 +1386,10 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -1262,7 +1397,10 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -1270,7 +1408,10 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -1278,7 +1419,10 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -1286,7 +1430,10 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -1294,7 +1441,10 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1302,7 +1452,10 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -1310,7 +1463,10 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -1318,7 +1474,10 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -1326,7 +1485,10 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -1334,7 +1496,10 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -1342,7 +1507,10 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -1350,13 +1518,16 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C62" s="4"/>
@@ -1365,19 +1536,22 @@
         <v>42805</v>
       </c>
       <c r="F62" s="11">
-        <f>1/5</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="10">
         <v>42819</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -1385,7 +1559,10 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -1393,7 +1570,10 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -1401,7 +1581,10 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="F66" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -1409,7 +1592,10 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="11">
+        <f t="shared" ref="F67:F83" si="1">1/5</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -1417,7 +1603,10 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="F68" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -1425,7 +1614,10 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -1433,7 +1625,10 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="F70" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -1441,7 +1636,10 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -1449,7 +1647,10 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -1457,7 +1658,10 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
@@ -1465,7 +1669,10 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -1473,7 +1680,10 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="F75" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -1481,7 +1691,10 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="F76" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -1489,7 +1702,10 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -1497,7 +1713,10 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="F78" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -1505,7 +1724,10 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="F79" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -1513,7 +1735,10 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="F80" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -1521,13 +1746,16 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="F81" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="4"/>
@@ -1536,19 +1764,22 @@
         <v>42805</v>
       </c>
       <c r="F82" s="11">
-        <f>1/5</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="10">
         <v>42819</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -1695,10 +1926,10 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="4"/>
@@ -1711,8 +1942,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -1720,18 +1951,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1741,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
@@ -2110,23 +2341,23 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2143,7 +2374,7 @@
       <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <v>42805</v>
       </c>
       <c r="F2" s="4"/>
@@ -2152,7 +2383,7 @@
       <c r="A3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2161,7 +2392,7 @@
       <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="25">
         <v>42805</v>
       </c>
       <c r="F3" s="4"/>
@@ -2179,7 +2410,7 @@
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="25">
         <v>42805</v>
       </c>
       <c r="F4" s="4"/>
@@ -2197,7 +2428,7 @@
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>42805</v>
       </c>
       <c r="F5" s="4"/>
@@ -2206,7 +2437,7 @@
       <c r="A6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2215,7 +2446,7 @@
       <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>42805</v>
       </c>
       <c r="F6" s="4"/>
@@ -2224,7 +2455,7 @@
       <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2233,7 +2464,7 @@
       <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <v>42805</v>
       </c>
       <c r="F7" s="4"/>
@@ -2251,7 +2482,7 @@
       <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>42819</v>
       </c>
       <c r="F8" s="4"/>
@@ -2267,7 +2498,7 @@
       <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>42819</v>
       </c>
       <c r="F9" s="4"/>
@@ -2281,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2293,10 +2524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
       <c r="D1" s="8" t="s">
         <v>32</v>
       </c>

--- a/docs/Deyatelnost.xlsx
+++ b/docs/Deyatelnost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Группа" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>Дата</t>
   </si>
@@ -288,6 +288,21 @@
   </si>
   <si>
     <t>diagram2_Transas.mdzip</t>
+  </si>
+  <si>
+    <t>VI.uml</t>
+  </si>
+  <si>
+    <t>Библиотека радарных изображений</t>
+  </si>
+  <si>
+    <t>Смоделированные радарные изображения, которые получает радар</t>
+  </si>
+  <si>
+    <t>Интерфейс</t>
+  </si>
+  <si>
+    <t>gui.pro</t>
   </si>
 </sst>
 </file>
@@ -411,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -466,9 +481,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,6 +493,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,7 +812,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +859,10 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4"/>
@@ -857,8 +876,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="10">
@@ -1068,10 +1087,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
@@ -1085,8 +1104,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="10">
@@ -1296,10 +1315,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="4"/>
@@ -1313,8 +1332,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="10">
@@ -1524,10 +1543,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C62" s="4"/>
@@ -1541,8 +1560,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="10">
@@ -1752,10 +1771,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="4"/>
@@ -1769,8 +1788,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="10">
@@ -1926,10 +1945,10 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
+      <c r="A102" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="4"/>
@@ -1942,8 +1961,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -1951,18 +1970,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1972,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2161,9 @@
       <c r="D9" s="19">
         <v>42812</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="18" t="s">
         <v>51</v>
       </c>
@@ -2218,7 +2239,9 @@
       <c r="D14" s="19">
         <v>42812</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,7 +2305,9 @@
       <c r="D18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,7 +2323,9 @@
       <c r="D19" s="19">
         <v>42812</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -2314,7 +2341,9 @@
       <c r="D20" s="19">
         <v>42819</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="18" t="s">
         <v>70</v>
       </c>
@@ -2326,10 +2355,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,26 +2368,26 @@
     <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2374,7 +2404,7 @@
       <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>42805</v>
       </c>
       <c r="F2" s="4"/>
@@ -2383,7 +2413,7 @@
       <c r="A3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2392,7 +2422,7 @@
       <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>42805</v>
       </c>
       <c r="F3" s="4"/>
@@ -2410,7 +2440,7 @@
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>42805</v>
       </c>
       <c r="F4" s="4"/>
@@ -2428,7 +2458,7 @@
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>42805</v>
       </c>
       <c r="F5" s="4"/>
@@ -2437,7 +2467,7 @@
       <c r="A6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2446,7 +2476,7 @@
       <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>42805</v>
       </c>
       <c r="F6" s="4"/>
@@ -2455,7 +2485,7 @@
       <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2464,7 +2494,7 @@
       <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>42805</v>
       </c>
       <c r="F7" s="4"/>
@@ -2482,7 +2512,7 @@
       <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>42819</v>
       </c>
       <c r="F8" s="4"/>
@@ -2491,17 +2521,55 @@
       <c r="A9" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>42819</v>
       </c>
       <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="24">
+        <v>42832</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="24">
+        <v>42826</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2524,10 +2592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
